--- a/src/assets/儲值對帳單總表.xlsx
+++ b/src/assets/儲值對帳單總表.xlsx
@@ -446,6 +446,15 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -455,23 +464,14 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,77 +755,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15" style="8" customWidth="1"/>
-    <col min="5" max="7" width="14" style="8" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="8" customWidth="1"/>
-    <col min="9" max="11" width="9" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="7" width="14" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="11" width="9" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -844,57 +844,51 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -903,14 +897,21 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283472" right="1.1023622047244095" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,粗體"鉅泰創新股份有限公司&amp;R
 &amp;P/&amp;N</oddHeader>
+    <oddFooter>&amp;R&amp;8&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/src/assets/儲值對帳單總表.xlsx
+++ b/src/assets/儲值對帳單總表.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表1!$9:$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -51,6 +54,102 @@
       </rPr>
       <t>前期餘額</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>車牌號碼</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>產品名稱</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公升數合計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>牌價合計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>售價合計</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總里程數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>油耗</t>
+    </r>
+  </si>
+  <si>
+    <t>年/月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -85,7 +184,7 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t>已扣除製卡費用</t>
+      <t>已先扣除製卡費用</t>
     </r>
     <r>
       <rPr>
@@ -120,28 +219,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不含製卡費</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+      <t/>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,122 +244,9 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>含扣製卡費</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
+      <t/>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>車牌號碼</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>產品名稱</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公升數合計</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>牌價合計</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>售價合計</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總里程數</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>油耗</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -353,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -427,13 +392,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,6 +446,24 @@
     <xf numFmtId="3" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,15 +472,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,73 +822,79 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>0</v>
+      <c r="A6" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11"/>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10"/>
       <c r="G6" s="11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
@@ -897,21 +903,14 @@
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="1.1023622047244095" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,粗體"鉅泰創新股份有限公司&amp;R
 &amp;P/&amp;N</oddHeader>
-    <oddFooter>&amp;R&amp;8&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>